--- a/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/005_local_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/005_local_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,273 +493,262 @@
           <t>LKW (R)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RC6</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45393.66666666666</v>
+        <v>45393.33333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>105</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45393.67361111111</v>
+        <v>45393.34027777778</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45393.68055555555</v>
+        <v>45393.34722222222</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45393.6875</v>
+        <v>45393.35416666666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45393.69444444445</v>
+        <v>45393.36111111111</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45393.70138888889</v>
+        <v>45393.36805555555</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45393.83333333334</v>
+        <v>45393.66666666666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -768,22 +757,21 @@
         <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45393.84027777778</v>
+        <v>45393.67361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -792,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -807,22 +795,21 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45393.84722222222</v>
+        <v>45393.68055555555</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -834,138 +821,362 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45393.85416666666</v>
+        <v>45393.6875</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45393.86111111111</v>
+        <v>45393.69444444445</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
+        <v>45393.70138888889</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45393.83333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45393.84027777778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45393.84722222222</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>60</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45393.85416666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>58</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45393.86111111111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45393.86805555555</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
         <v>21</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>52</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
